--- a/Applications/Arduino/Simulink/TemperatureControl/Step01_OpenLoop/OpenLoopRunIDs.xlsx
+++ b/Applications/Arduino/Simulink/TemperatureControl/Step01_OpenLoop/OpenLoopRunIDs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MatlabLum\Applications\Arduino\Simulink\TemperatureControl\Step01_OpenLoop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50247586-29E3-4E4C-8961-CAB2E73D3080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD919978-9437-43E3-8C14-C6BEE3808C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2340" yWindow="-18120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26460" yWindow="-16500" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
   <si>
     <t>File</t>
   </si>
@@ -61,12 +61,18 @@
   </si>
   <si>
     <t>OpenLoopSimulinkData_ID05</t>
+  </si>
+  <si>
+    <t>Date Executed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -110,9 +116,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,19 +403,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F3" sqref="F3:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -421,11 +432,14 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -441,8 +455,11 @@
       <c r="E2">
         <v>1</v>
       </c>
+      <c r="F2" s="3">
+        <v>45668</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -458,8 +475,11 @@
       <c r="E3">
         <v>0.8</v>
       </c>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -475,8 +495,11 @@
       <c r="E4">
         <v>0.6</v>
       </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -492,8 +515,11 @@
       <c r="E5">
         <v>0.4</v>
       </c>
+      <c r="F5" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -508,6 +534,9 @@
       </c>
       <c r="E6">
         <v>0.2</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
